--- a/2021.xlsx
+++ b/2021.xlsx
@@ -1,14 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beca\OneDrive\Escritorio\modelo LOLIUM Bordenave 2017\MODELO PRED PATRON 2025\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5079B52B-D546-4333-9B1C-D6ACDFA46F71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="2021" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="abril_1" localSheetId="0">'2021'!$B$92:$D$121</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -18,9 +27,42 @@
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF04000000}" name="abril" type="6" refreshedVersion="3" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="C:\Users\Pc\Desktop\abril.txt" decimal="," thousands="." space="1" consecutive="1">
+      <textFields count="5">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+</connections>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>DIA JULIANO</t>
+  </si>
+  <si>
+    <t>Tmin</t>
+  </si>
+  <si>
+    <t>Tmax</t>
+  </si>
+  <si>
+    <t>prec</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,13 +70,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -49,8 +103,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -66,6 +125,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="abril_1" connectionId="1" xr16:uid="{A194D381-811F-4903-B4C4-6AABF27E4E99}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +393,3003 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E346"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" customWidth="1"/>
+    <col min="3" max="3" width="25.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>44197</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>16.8</v>
+      </c>
+      <c r="D2" s="3">
+        <v>35.4</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>44198</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="D3" s="3">
+        <v>37.4</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>44199</v>
+      </c>
+      <c r="B4" s="2">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3">
+        <v>21.1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>28.1</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>44200</v>
+      </c>
+      <c r="B5" s="2">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3">
+        <v>15.9</v>
+      </c>
+      <c r="D5" s="3">
+        <v>21.8</v>
+      </c>
+      <c r="E5" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>44201</v>
+      </c>
+      <c r="B6" s="2">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3">
+        <v>15.4</v>
+      </c>
+      <c r="D6" s="3">
+        <v>19</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>44202</v>
+      </c>
+      <c r="B7" s="2">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3">
+        <v>14.2</v>
+      </c>
+      <c r="D7" s="3">
+        <v>23.5</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>44203</v>
+      </c>
+      <c r="B8" s="2">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3">
+        <v>9.9</v>
+      </c>
+      <c r="D8" s="3">
+        <v>32.9</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>44204</v>
+      </c>
+      <c r="B9" s="2">
+        <v>8</v>
+      </c>
+      <c r="C9" s="3">
+        <v>12.5</v>
+      </c>
+      <c r="D9" s="3">
+        <v>29.9</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>44205</v>
+      </c>
+      <c r="B10" s="2">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3">
+        <v>12</v>
+      </c>
+      <c r="D10" s="3">
+        <v>31</v>
+      </c>
+      <c r="E10" s="3">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>44206</v>
+      </c>
+      <c r="B11" s="2">
+        <v>10</v>
+      </c>
+      <c r="C11" s="3">
+        <v>17.2</v>
+      </c>
+      <c r="D11" s="3">
+        <v>23.4</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>44207</v>
+      </c>
+      <c r="B12" s="2">
+        <v>11</v>
+      </c>
+      <c r="C12" s="3">
+        <v>14.3</v>
+      </c>
+      <c r="D12" s="3">
+        <v>24.8</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>44208</v>
+      </c>
+      <c r="B13" s="2">
+        <v>12</v>
+      </c>
+      <c r="C13" s="3">
+        <v>6.1</v>
+      </c>
+      <c r="D13" s="3">
+        <v>26.7</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>44209</v>
+      </c>
+      <c r="B14" s="2">
+        <v>13</v>
+      </c>
+      <c r="C14" s="3">
+        <v>11.9</v>
+      </c>
+      <c r="D14" s="3">
+        <v>29.5</v>
+      </c>
+      <c r="E14" s="3">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>44210</v>
+      </c>
+      <c r="B15" s="2">
+        <v>14</v>
+      </c>
+      <c r="C15" s="3">
+        <v>14.2</v>
+      </c>
+      <c r="D15" s="3">
+        <v>29.8</v>
+      </c>
+      <c r="E15" s="3">
+        <v>15.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>44211</v>
+      </c>
+      <c r="B16" s="2">
+        <v>15</v>
+      </c>
+      <c r="C16" s="3">
+        <v>16.7</v>
+      </c>
+      <c r="D16" s="3">
+        <v>30.9</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>44212</v>
+      </c>
+      <c r="B17" s="2">
+        <v>16</v>
+      </c>
+      <c r="C17" s="3">
+        <v>15.8</v>
+      </c>
+      <c r="D17" s="3">
+        <v>22.9</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>44213</v>
+      </c>
+      <c r="B18" s="2">
+        <v>17</v>
+      </c>
+      <c r="C18" s="3">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="D18" s="3">
+        <v>29.6</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>44214</v>
+      </c>
+      <c r="B19" s="2">
+        <v>18</v>
+      </c>
+      <c r="C19" s="3">
+        <v>12.4</v>
+      </c>
+      <c r="D19" s="3">
+        <v>36</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>44215</v>
+      </c>
+      <c r="B20" s="2">
+        <v>19</v>
+      </c>
+      <c r="C20" s="3">
+        <v>14.8</v>
+      </c>
+      <c r="D20" s="3">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>44216</v>
+      </c>
+      <c r="B21" s="2">
+        <v>20</v>
+      </c>
+      <c r="C21" s="3">
+        <v>17.2</v>
+      </c>
+      <c r="D21" s="3">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>44217</v>
+      </c>
+      <c r="B22" s="2">
+        <v>21</v>
+      </c>
+      <c r="C22" s="3">
+        <v>17.8</v>
+      </c>
+      <c r="D22" s="3">
+        <v>34.6</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>44218</v>
+      </c>
+      <c r="B23" s="2">
+        <v>22</v>
+      </c>
+      <c r="C23" s="3">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="D23" s="3">
+        <v>34.4</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>44219</v>
+      </c>
+      <c r="B24" s="2">
+        <v>23</v>
+      </c>
+      <c r="C24" s="3">
+        <v>22.1</v>
+      </c>
+      <c r="D24" s="3">
+        <v>37.5</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>44220</v>
+      </c>
+      <c r="B25" s="2">
+        <v>24</v>
+      </c>
+      <c r="C25" s="3">
+        <v>22.3</v>
+      </c>
+      <c r="D25" s="3">
+        <v>35.9</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>44221</v>
+      </c>
+      <c r="B26" s="2">
+        <v>25</v>
+      </c>
+      <c r="C26" s="3">
+        <v>22.4</v>
+      </c>
+      <c r="D26" s="3">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>44222</v>
+      </c>
+      <c r="B27" s="2">
+        <v>26</v>
+      </c>
+      <c r="C27" s="3">
+        <v>14.1</v>
+      </c>
+      <c r="D27" s="3">
+        <v>34.1</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>44223</v>
+      </c>
+      <c r="B28" s="2">
+        <v>27</v>
+      </c>
+      <c r="C28" s="3">
+        <v>11</v>
+      </c>
+      <c r="D28" s="3">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>44224</v>
+      </c>
+      <c r="B29" s="2">
+        <v>28</v>
+      </c>
+      <c r="C29" s="3">
+        <v>10.7</v>
+      </c>
+      <c r="D29" s="3">
+        <v>29.1</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>44225</v>
+      </c>
+      <c r="B30" s="2">
+        <v>29</v>
+      </c>
+      <c r="C30" s="3">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="D30" s="3">
+        <v>28.4</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>44226</v>
+      </c>
+      <c r="B31" s="2">
+        <v>30</v>
+      </c>
+      <c r="C31" s="3">
+        <v>15.9</v>
+      </c>
+      <c r="D31" s="3">
+        <v>24.9</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>44227</v>
+      </c>
+      <c r="B32" s="2">
+        <v>31</v>
+      </c>
+      <c r="C32" s="3">
+        <v>7.2</v>
+      </c>
+      <c r="D32" s="3">
+        <v>25.5</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>44228</v>
+      </c>
+      <c r="B33" s="2">
+        <v>32</v>
+      </c>
+      <c r="C33" s="3">
+        <v>12.6</v>
+      </c>
+      <c r="D33" s="3">
+        <v>22.8</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>44229</v>
+      </c>
+      <c r="B34" s="2">
+        <v>33</v>
+      </c>
+      <c r="C34" s="3">
+        <v>11.5</v>
+      </c>
+      <c r="D34" s="3">
+        <v>28.2</v>
+      </c>
+      <c r="E34" s="3">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>44230</v>
+      </c>
+      <c r="B35" s="2">
+        <v>34</v>
+      </c>
+      <c r="C35" s="3">
+        <v>12</v>
+      </c>
+      <c r="D35" s="3">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>44231</v>
+      </c>
+      <c r="B36" s="2">
+        <v>35</v>
+      </c>
+      <c r="C36" s="3">
+        <v>11.8</v>
+      </c>
+      <c r="D36" s="3">
+        <v>33.4</v>
+      </c>
+      <c r="E36" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>44232</v>
+      </c>
+      <c r="B37" s="2">
+        <v>36</v>
+      </c>
+      <c r="C37" s="3">
+        <v>11.5</v>
+      </c>
+      <c r="D37" s="3">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="E37" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>44233</v>
+      </c>
+      <c r="B38" s="2">
+        <v>37</v>
+      </c>
+      <c r="C38" s="3">
+        <v>12.9</v>
+      </c>
+      <c r="D38" s="3">
+        <v>34.9</v>
+      </c>
+      <c r="E38" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>44234</v>
+      </c>
+      <c r="B39" s="2">
+        <v>38</v>
+      </c>
+      <c r="C39" s="3">
+        <v>14.7</v>
+      </c>
+      <c r="D39" s="3">
+        <v>25.8</v>
+      </c>
+      <c r="E39" s="3">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>44235</v>
+      </c>
+      <c r="B40" s="2">
+        <v>39</v>
+      </c>
+      <c r="C40" s="3">
+        <v>7.6</v>
+      </c>
+      <c r="D40" s="3">
+        <v>24.7</v>
+      </c>
+      <c r="E40" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>44236</v>
+      </c>
+      <c r="B41" s="2">
+        <v>40</v>
+      </c>
+      <c r="C41" s="3">
+        <v>13.3</v>
+      </c>
+      <c r="D41" s="3">
+        <v>27.5</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>44237</v>
+      </c>
+      <c r="B42" s="2">
+        <v>41</v>
+      </c>
+      <c r="C42" s="3">
+        <v>10.4</v>
+      </c>
+      <c r="D42" s="3">
+        <v>28</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>44238</v>
+      </c>
+      <c r="B43" s="2">
+        <v>42</v>
+      </c>
+      <c r="C43" s="3">
+        <v>13.1</v>
+      </c>
+      <c r="D43" s="3">
+        <v>30.9</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>44239</v>
+      </c>
+      <c r="B44" s="2">
+        <v>43</v>
+      </c>
+      <c r="C44" s="3">
+        <v>16.8</v>
+      </c>
+      <c r="D44" s="3">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="E44" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>44240</v>
+      </c>
+      <c r="B45" s="2">
+        <v>44</v>
+      </c>
+      <c r="C45" s="3">
+        <v>19</v>
+      </c>
+      <c r="D45" s="3">
+        <v>27.9</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>44241</v>
+      </c>
+      <c r="B46" s="2">
+        <v>45</v>
+      </c>
+      <c r="C46" s="3">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="D46" s="3">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>44242</v>
+      </c>
+      <c r="B47" s="2">
+        <v>46</v>
+      </c>
+      <c r="C47" s="3">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="D47" s="3">
+        <v>24.7</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>44243</v>
+      </c>
+      <c r="B48" s="2">
+        <v>47</v>
+      </c>
+      <c r="C48" s="3">
+        <v>7.2</v>
+      </c>
+      <c r="D48" s="3">
+        <v>29.3</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>44244</v>
+      </c>
+      <c r="B49" s="2">
+        <v>48</v>
+      </c>
+      <c r="C49" s="3">
+        <v>11.3</v>
+      </c>
+      <c r="D49" s="3">
+        <v>36.4</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>44245</v>
+      </c>
+      <c r="B50" s="2">
+        <v>49</v>
+      </c>
+      <c r="C50" s="3">
+        <v>16.2</v>
+      </c>
+      <c r="D50" s="3">
+        <v>35.5</v>
+      </c>
+      <c r="E50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>44246</v>
+      </c>
+      <c r="B51" s="2">
+        <v>50</v>
+      </c>
+      <c r="C51" s="3">
+        <v>13.2</v>
+      </c>
+      <c r="D51" s="3">
+        <v>26.3</v>
+      </c>
+      <c r="E51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>44247</v>
+      </c>
+      <c r="B52" s="2">
+        <v>51</v>
+      </c>
+      <c r="C52" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="D52" s="3">
+        <v>30.3</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>44248</v>
+      </c>
+      <c r="B53" s="2">
+        <v>52</v>
+      </c>
+      <c r="C53" s="3">
+        <v>14.6</v>
+      </c>
+      <c r="D53" s="3">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="E53" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>44249</v>
+      </c>
+      <c r="B54" s="2">
+        <v>53</v>
+      </c>
+      <c r="C54" s="3">
+        <v>12.9</v>
+      </c>
+      <c r="D54" s="3">
+        <v>29.1</v>
+      </c>
+      <c r="E54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>44250</v>
+      </c>
+      <c r="B55" s="2">
+        <v>54</v>
+      </c>
+      <c r="C55" s="3">
+        <v>6.9</v>
+      </c>
+      <c r="D55" s="3">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="E55" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>44251</v>
+      </c>
+      <c r="B56" s="2">
+        <v>55</v>
+      </c>
+      <c r="C56" s="3">
+        <v>7.3</v>
+      </c>
+      <c r="D56" s="3">
+        <v>34.5</v>
+      </c>
+      <c r="E56" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>44252</v>
+      </c>
+      <c r="B57" s="2">
+        <v>56</v>
+      </c>
+      <c r="C57" s="3">
+        <v>12.2</v>
+      </c>
+      <c r="D57" s="3">
+        <v>36.6</v>
+      </c>
+      <c r="E57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>44253</v>
+      </c>
+      <c r="B58" s="2">
+        <v>57</v>
+      </c>
+      <c r="C58" s="3">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="D58" s="3">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="E58" s="3">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>44254</v>
+      </c>
+      <c r="B59" s="2">
+        <v>58</v>
+      </c>
+      <c r="C59" s="3">
+        <v>17.2</v>
+      </c>
+      <c r="D59" s="3">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="E59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>44255</v>
+      </c>
+      <c r="B60" s="2">
+        <v>59</v>
+      </c>
+      <c r="C60" s="3">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="D60" s="3">
+        <v>33.9</v>
+      </c>
+      <c r="E60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>44256</v>
+      </c>
+      <c r="B61" s="2">
+        <v>60</v>
+      </c>
+      <c r="C61" s="3">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="D61" s="3">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="E61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>44257</v>
+      </c>
+      <c r="B62" s="2">
+        <v>61</v>
+      </c>
+      <c r="C62" s="3">
+        <v>19</v>
+      </c>
+      <c r="D62" s="3">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>44258</v>
+      </c>
+      <c r="B63" s="2">
+        <v>62</v>
+      </c>
+      <c r="C63" s="3">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="D63" s="3">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="E63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>44259</v>
+      </c>
+      <c r="B64" s="2">
+        <v>63</v>
+      </c>
+      <c r="C64" s="3">
+        <v>19.8</v>
+      </c>
+      <c r="D64" s="3">
+        <v>26.6</v>
+      </c>
+      <c r="E64" s="3">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>44260</v>
+      </c>
+      <c r="B65" s="2">
+        <v>64</v>
+      </c>
+      <c r="C65" s="3">
+        <v>12.6</v>
+      </c>
+      <c r="D65" s="3">
+        <v>28.5</v>
+      </c>
+      <c r="E65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>44261</v>
+      </c>
+      <c r="B66" s="2">
+        <v>65</v>
+      </c>
+      <c r="C66" s="3">
+        <v>13.8</v>
+      </c>
+      <c r="D66" s="3">
+        <v>32</v>
+      </c>
+      <c r="E66" s="3">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>44262</v>
+      </c>
+      <c r="B67" s="2">
+        <v>66</v>
+      </c>
+      <c r="C67" s="3">
+        <v>17.7</v>
+      </c>
+      <c r="D67" s="3">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="E67" s="3">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>44263</v>
+      </c>
+      <c r="B68" s="2">
+        <v>67</v>
+      </c>
+      <c r="C68" s="3">
+        <v>16.2</v>
+      </c>
+      <c r="D68" s="3">
+        <v>27.4</v>
+      </c>
+      <c r="E68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>44264</v>
+      </c>
+      <c r="B69" s="2">
+        <v>68</v>
+      </c>
+      <c r="C69" s="3">
+        <v>11.7</v>
+      </c>
+      <c r="D69" s="3">
+        <v>28.3</v>
+      </c>
+      <c r="E69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>44265</v>
+      </c>
+      <c r="B70" s="2">
+        <v>69</v>
+      </c>
+      <c r="C70" s="3">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="D70" s="3">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="E70" s="3">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>44266</v>
+      </c>
+      <c r="B71" s="2">
+        <v>70</v>
+      </c>
+      <c r="C71" s="3">
+        <v>14.2</v>
+      </c>
+      <c r="D71" s="3">
+        <v>28</v>
+      </c>
+      <c r="E71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <v>44267</v>
+      </c>
+      <c r="B72" s="2">
+        <v>71</v>
+      </c>
+      <c r="C72" s="3">
+        <v>10.1</v>
+      </c>
+      <c r="D72" s="3">
+        <v>32.1</v>
+      </c>
+      <c r="E72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <v>44268</v>
+      </c>
+      <c r="B73" s="2">
+        <v>72</v>
+      </c>
+      <c r="C73" s="3">
+        <v>14.2</v>
+      </c>
+      <c r="D73" s="3">
+        <v>31.1</v>
+      </c>
+      <c r="E73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <v>44269</v>
+      </c>
+      <c r="B74" s="2">
+        <v>73</v>
+      </c>
+      <c r="C74" s="3">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="D74" s="3">
+        <v>28</v>
+      </c>
+      <c r="E74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <v>44270</v>
+      </c>
+      <c r="B75" s="2">
+        <v>74</v>
+      </c>
+      <c r="C75" s="3">
+        <v>15.7</v>
+      </c>
+      <c r="D75" s="3">
+        <v>28.5</v>
+      </c>
+      <c r="E75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
+        <v>44271</v>
+      </c>
+      <c r="B76" s="2">
+        <v>75</v>
+      </c>
+      <c r="C76" s="3">
+        <v>17.3</v>
+      </c>
+      <c r="D76" s="3">
+        <v>22.8</v>
+      </c>
+      <c r="E76" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
+        <v>44272</v>
+      </c>
+      <c r="B77" s="2">
+        <v>76</v>
+      </c>
+      <c r="C77" s="3">
+        <v>11</v>
+      </c>
+      <c r="D77" s="3">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="E77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
+        <v>44273</v>
+      </c>
+      <c r="B78" s="2">
+        <v>77</v>
+      </c>
+      <c r="C78" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="D78" s="3">
+        <v>20.3</v>
+      </c>
+      <c r="E78" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
+        <v>44274</v>
+      </c>
+      <c r="B79" s="2">
+        <v>78</v>
+      </c>
+      <c r="C79" s="3">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="D79" s="3">
+        <v>22.8</v>
+      </c>
+      <c r="E79" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
+        <v>44275</v>
+      </c>
+      <c r="B80" s="2">
+        <v>79</v>
+      </c>
+      <c r="C80" s="3">
+        <v>14.8</v>
+      </c>
+      <c r="D80" s="3">
+        <v>26.8</v>
+      </c>
+      <c r="E80" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
+        <v>44276</v>
+      </c>
+      <c r="B81" s="2">
+        <v>80</v>
+      </c>
+      <c r="C81" s="3">
+        <v>8.1</v>
+      </c>
+      <c r="D81" s="3">
+        <v>26.5</v>
+      </c>
+      <c r="E81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
+        <v>44277</v>
+      </c>
+      <c r="B82" s="2">
+        <v>81</v>
+      </c>
+      <c r="C82" s="3">
+        <v>11.2</v>
+      </c>
+      <c r="D82" s="3">
+        <v>26</v>
+      </c>
+      <c r="E82" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
+        <v>44278</v>
+      </c>
+      <c r="B83" s="2">
+        <v>82</v>
+      </c>
+      <c r="C83" s="3">
+        <v>11.9</v>
+      </c>
+      <c r="D83" s="3">
+        <v>30.7</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
+        <v>44279</v>
+      </c>
+      <c r="B84" s="2">
+        <v>83</v>
+      </c>
+      <c r="C84" s="3">
+        <v>14.5</v>
+      </c>
+      <c r="D84" s="3">
+        <v>31.2</v>
+      </c>
+      <c r="E84" s="3">
+        <v>24.3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
+        <v>44280</v>
+      </c>
+      <c r="B85" s="2">
+        <v>84</v>
+      </c>
+      <c r="C85" s="3">
+        <v>13.3</v>
+      </c>
+      <c r="D85" s="3">
+        <v>22.6</v>
+      </c>
+      <c r="E85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" s="1">
+        <v>44281</v>
+      </c>
+      <c r="B86" s="2">
+        <v>85</v>
+      </c>
+      <c r="C86" s="3">
+        <v>13.5</v>
+      </c>
+      <c r="D86" s="3">
+        <v>19.2</v>
+      </c>
+      <c r="E86" s="3">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" s="1">
+        <v>44282</v>
+      </c>
+      <c r="B87" s="2">
+        <v>86</v>
+      </c>
+      <c r="C87" s="3">
+        <v>11.6</v>
+      </c>
+      <c r="D87" s="3">
+        <v>22.6</v>
+      </c>
+      <c r="E87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" s="1">
+        <v>44283</v>
+      </c>
+      <c r="B88" s="2">
+        <v>87</v>
+      </c>
+      <c r="C88" s="3">
+        <v>2.9</v>
+      </c>
+      <c r="D88" s="3">
+        <v>25.6</v>
+      </c>
+      <c r="E88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" s="1">
+        <v>44284</v>
+      </c>
+      <c r="B89" s="2">
+        <v>88</v>
+      </c>
+      <c r="C89" s="3">
+        <v>5.7</v>
+      </c>
+      <c r="D89" s="3">
+        <v>27.8</v>
+      </c>
+      <c r="E89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" s="1">
+        <v>44285</v>
+      </c>
+      <c r="B90" s="2">
+        <v>89</v>
+      </c>
+      <c r="C90" s="3">
+        <v>7.7</v>
+      </c>
+      <c r="D90" s="3">
+        <v>27.6</v>
+      </c>
+      <c r="E90" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" s="1">
+        <v>44286</v>
+      </c>
+      <c r="B91" s="2">
+        <v>90</v>
+      </c>
+      <c r="C91" s="3">
+        <v>11.8</v>
+      </c>
+      <c r="D91" s="3">
+        <v>26.2</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" s="1">
+        <v>44287</v>
+      </c>
+      <c r="B92" s="2">
+        <v>91</v>
+      </c>
+      <c r="C92" s="3">
+        <v>11.5</v>
+      </c>
+      <c r="D92" s="3">
+        <v>25.2</v>
+      </c>
+      <c r="E92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" s="1">
+        <v>44288</v>
+      </c>
+      <c r="B93" s="2">
+        <v>92</v>
+      </c>
+      <c r="C93" s="3">
+        <v>13.5</v>
+      </c>
+      <c r="D93" s="3">
+        <v>26.5</v>
+      </c>
+      <c r="E93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" s="1">
+        <v>44289</v>
+      </c>
+      <c r="B94" s="2">
+        <v>93</v>
+      </c>
+      <c r="C94" s="3">
+        <v>14.6</v>
+      </c>
+      <c r="D94" s="3">
+        <v>27.1</v>
+      </c>
+      <c r="E94" s="3">
+        <v>18.8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" s="1">
+        <v>44290</v>
+      </c>
+      <c r="B95" s="2">
+        <v>94</v>
+      </c>
+      <c r="C95" s="3">
+        <v>16.2</v>
+      </c>
+      <c r="D95" s="3">
+        <v>28</v>
+      </c>
+      <c r="E95" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
+        <v>44291</v>
+      </c>
+      <c r="B96" s="2">
+        <v>95</v>
+      </c>
+      <c r="C96" s="3">
+        <v>15.8</v>
+      </c>
+      <c r="D96" s="3">
+        <v>29.3</v>
+      </c>
+      <c r="E96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97" s="1">
+        <v>44292</v>
+      </c>
+      <c r="B97" s="2">
+        <v>96</v>
+      </c>
+      <c r="C97" s="3">
+        <v>17.7</v>
+      </c>
+      <c r="D97" s="3">
+        <v>30.2</v>
+      </c>
+      <c r="E97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" s="1">
+        <v>44293</v>
+      </c>
+      <c r="B98" s="2">
+        <v>97</v>
+      </c>
+      <c r="C98" s="3">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="D98" s="3">
+        <v>30</v>
+      </c>
+      <c r="E98" s="3">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99" s="1">
+        <v>44294</v>
+      </c>
+      <c r="B99" s="2">
+        <v>98</v>
+      </c>
+      <c r="C99" s="3">
+        <v>16</v>
+      </c>
+      <c r="D99" s="3">
+        <v>23.6</v>
+      </c>
+      <c r="E99" s="3">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100" s="1">
+        <v>44295</v>
+      </c>
+      <c r="B100" s="2">
+        <v>99</v>
+      </c>
+      <c r="C100" s="3">
+        <v>13.3</v>
+      </c>
+      <c r="D100" s="3">
+        <v>24.1</v>
+      </c>
+      <c r="E100" s="3">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101" s="1">
+        <v>44296</v>
+      </c>
+      <c r="B101" s="2">
+        <v>100</v>
+      </c>
+      <c r="C101" s="3">
+        <v>12.6</v>
+      </c>
+      <c r="D101" s="3">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="E101" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102" s="1">
+        <v>44297</v>
+      </c>
+      <c r="B102" s="2">
+        <v>101</v>
+      </c>
+      <c r="C102" s="3">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="D102" s="3">
+        <v>23.3</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103" s="1">
+        <v>44298</v>
+      </c>
+      <c r="B103" s="2">
+        <v>102</v>
+      </c>
+      <c r="C103" s="3">
+        <v>6.1</v>
+      </c>
+      <c r="D103" s="3">
+        <v>25.9</v>
+      </c>
+      <c r="E103" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104" s="1">
+        <v>44299</v>
+      </c>
+      <c r="B104" s="2">
+        <v>103</v>
+      </c>
+      <c r="C104" s="3">
+        <v>8.4</v>
+      </c>
+      <c r="D104" s="3">
+        <v>27.2</v>
+      </c>
+      <c r="E104" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" s="1">
+        <v>44300</v>
+      </c>
+      <c r="B105" s="2">
+        <v>104</v>
+      </c>
+      <c r="C105" s="3">
+        <v>11.8</v>
+      </c>
+      <c r="D105" s="3">
+        <v>24.8</v>
+      </c>
+      <c r="E105" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" s="1">
+        <v>44301</v>
+      </c>
+      <c r="B106" s="2">
+        <v>105</v>
+      </c>
+      <c r="C106" s="3">
+        <v>9.1</v>
+      </c>
+      <c r="D106" s="3">
+        <v>26.9</v>
+      </c>
+      <c r="E106" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107" s="1">
+        <v>44302</v>
+      </c>
+      <c r="B107" s="2">
+        <v>106</v>
+      </c>
+      <c r="C107" s="3">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="D107" s="3">
+        <v>29.1</v>
+      </c>
+      <c r="E107" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108" s="1">
+        <v>44303</v>
+      </c>
+      <c r="B108" s="2">
+        <v>107</v>
+      </c>
+      <c r="C108" s="3">
+        <v>14.1</v>
+      </c>
+      <c r="D108" s="3">
+        <v>21.1</v>
+      </c>
+      <c r="E108" s="3">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109" s="1">
+        <v>44304</v>
+      </c>
+      <c r="B109" s="2">
+        <v>108</v>
+      </c>
+      <c r="C109" s="3">
+        <v>15.6</v>
+      </c>
+      <c r="D109" s="3">
+        <v>24.9</v>
+      </c>
+      <c r="E109" s="3">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110" s="1">
+        <v>44305</v>
+      </c>
+      <c r="B110" s="2">
+        <v>109</v>
+      </c>
+      <c r="C110" s="3">
+        <v>17</v>
+      </c>
+      <c r="D110" s="3">
+        <v>28</v>
+      </c>
+      <c r="E110" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111" s="1">
+        <v>44306</v>
+      </c>
+      <c r="B111" s="2">
+        <v>110</v>
+      </c>
+      <c r="C111" s="3">
+        <v>14.8</v>
+      </c>
+      <c r="D111" s="3">
+        <v>26.1</v>
+      </c>
+      <c r="E111" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112" s="1">
+        <v>44307</v>
+      </c>
+      <c r="B112" s="2">
+        <v>111</v>
+      </c>
+      <c r="C112" s="3">
+        <v>15.7</v>
+      </c>
+      <c r="D112" s="3">
+        <v>20.6</v>
+      </c>
+      <c r="E112" s="3">
+        <v>16.3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113" s="1">
+        <v>44308</v>
+      </c>
+      <c r="B113" s="2">
+        <v>112</v>
+      </c>
+      <c r="C113" s="3">
+        <v>7.8</v>
+      </c>
+      <c r="D113" s="3">
+        <v>23.5</v>
+      </c>
+      <c r="E113" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114" s="1">
+        <v>44309</v>
+      </c>
+      <c r="B114" s="2">
+        <v>113</v>
+      </c>
+      <c r="C114" s="3">
+        <v>12.7</v>
+      </c>
+      <c r="D114" s="3">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="E114" s="3">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115" s="1">
+        <v>44310</v>
+      </c>
+      <c r="B115" s="2">
+        <v>114</v>
+      </c>
+      <c r="C115" s="3">
+        <v>9.6</v>
+      </c>
+      <c r="D115" s="3">
+        <v>18.5</v>
+      </c>
+      <c r="E115" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116" s="1">
+        <v>44311</v>
+      </c>
+      <c r="B116" s="2">
+        <v>115</v>
+      </c>
+      <c r="C116" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="D116" s="3">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="E116" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117" s="1">
+        <v>44312</v>
+      </c>
+      <c r="B117" s="2">
+        <v>116</v>
+      </c>
+      <c r="C117" s="3">
+        <v>3.9</v>
+      </c>
+      <c r="D117" s="3">
+        <v>20.3</v>
+      </c>
+      <c r="E117" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118" s="1">
+        <v>44313</v>
+      </c>
+      <c r="B118" s="2">
+        <v>117</v>
+      </c>
+      <c r="C118" s="3">
+        <v>9</v>
+      </c>
+      <c r="D118" s="3">
+        <v>25.6</v>
+      </c>
+      <c r="E118" s="3">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119" s="1">
+        <v>44314</v>
+      </c>
+      <c r="B119" s="2">
+        <v>118</v>
+      </c>
+      <c r="C119" s="3">
+        <v>7.2</v>
+      </c>
+      <c r="D119" s="3">
+        <v>27.1</v>
+      </c>
+      <c r="E119" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120" s="1">
+        <v>44315</v>
+      </c>
+      <c r="B120" s="2">
+        <v>119</v>
+      </c>
+      <c r="C120" s="3">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="D120" s="3">
+        <v>26.3</v>
+      </c>
+      <c r="E120" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A121" s="1">
+        <v>44316</v>
+      </c>
+      <c r="B121" s="2">
+        <v>120</v>
+      </c>
+      <c r="C121" s="3">
+        <v>10.1</v>
+      </c>
+      <c r="D121" s="3">
+        <v>24.5</v>
+      </c>
+      <c r="E121" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A122" s="1">
+        <v>44317</v>
+      </c>
+      <c r="B122" s="2">
+        <v>121</v>
+      </c>
+      <c r="C122" s="3">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="D122" s="3">
+        <v>22.2</v>
+      </c>
+      <c r="E122" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C123" s="3"/>
+      <c r="D123" s="3"/>
+      <c r="E123" s="3"/>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C124" s="3"/>
+      <c r="D124" s="3"/>
+      <c r="E124" s="3"/>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C125" s="3"/>
+      <c r="D125" s="3"/>
+      <c r="E125" s="3"/>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C126" s="3"/>
+      <c r="D126" s="3"/>
+      <c r="E126" s="3"/>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C127" s="3"/>
+      <c r="D127" s="3"/>
+      <c r="E127" s="3"/>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C128" s="3"/>
+      <c r="D128" s="3"/>
+      <c r="E128" s="3"/>
+    </row>
+    <row r="129" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C129" s="3"/>
+      <c r="D129" s="3"/>
+      <c r="E129" s="3"/>
+    </row>
+    <row r="130" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C130" s="3"/>
+      <c r="D130" s="3"/>
+      <c r="E130" s="3"/>
+    </row>
+    <row r="131" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C131" s="3"/>
+      <c r="D131" s="3"/>
+      <c r="E131" s="3"/>
+    </row>
+    <row r="132" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C132" s="3"/>
+      <c r="D132" s="3"/>
+      <c r="E132" s="3"/>
+    </row>
+    <row r="133" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C133" s="3"/>
+      <c r="D133" s="3"/>
+      <c r="E133" s="3"/>
+    </row>
+    <row r="134" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C134" s="3"/>
+      <c r="D134" s="3"/>
+      <c r="E134" s="3"/>
+    </row>
+    <row r="135" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C135" s="3"/>
+      <c r="D135" s="3"/>
+      <c r="E135" s="3"/>
+    </row>
+    <row r="136" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C136" s="3"/>
+      <c r="D136" s="3"/>
+      <c r="E136" s="3"/>
+    </row>
+    <row r="137" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C137" s="3"/>
+      <c r="D137" s="3"/>
+      <c r="E137" s="3"/>
+    </row>
+    <row r="138" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C138" s="3"/>
+      <c r="D138" s="3"/>
+      <c r="E138" s="3"/>
+    </row>
+    <row r="139" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C139" s="3"/>
+      <c r="D139" s="3"/>
+      <c r="E139" s="3"/>
+    </row>
+    <row r="140" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C140" s="3"/>
+      <c r="D140" s="3"/>
+      <c r="E140" s="3"/>
+    </row>
+    <row r="141" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C141" s="3"/>
+      <c r="D141" s="3"/>
+      <c r="E141" s="3"/>
+    </row>
+    <row r="142" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C142" s="3"/>
+      <c r="D142" s="3"/>
+      <c r="E142" s="3"/>
+    </row>
+    <row r="143" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C143" s="3"/>
+      <c r="D143" s="3"/>
+      <c r="E143" s="3"/>
+    </row>
+    <row r="144" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C144" s="3"/>
+      <c r="D144" s="3"/>
+      <c r="E144" s="3"/>
+    </row>
+    <row r="145" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C145" s="3"/>
+      <c r="D145" s="3"/>
+      <c r="E145" s="3"/>
+    </row>
+    <row r="146" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C146" s="3"/>
+      <c r="D146" s="3"/>
+      <c r="E146" s="3"/>
+    </row>
+    <row r="147" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C147" s="3"/>
+      <c r="D147" s="3"/>
+      <c r="E147" s="3"/>
+    </row>
+    <row r="148" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C148" s="3"/>
+      <c r="D148" s="3"/>
+      <c r="E148" s="3"/>
+    </row>
+    <row r="149" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C149" s="3"/>
+      <c r="D149" s="3"/>
+      <c r="E149" s="3"/>
+    </row>
+    <row r="150" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C150" s="3"/>
+      <c r="D150" s="3"/>
+      <c r="E150" s="3"/>
+    </row>
+    <row r="151" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C151" s="3"/>
+      <c r="D151" s="3"/>
+      <c r="E151" s="3"/>
+    </row>
+    <row r="152" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C152" s="3"/>
+      <c r="D152" s="3"/>
+      <c r="E152" s="3"/>
+    </row>
+    <row r="153" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C153" s="3"/>
+      <c r="D153" s="3"/>
+      <c r="E153" s="3"/>
+    </row>
+    <row r="154" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C154" s="3"/>
+      <c r="D154" s="3"/>
+      <c r="E154" s="3"/>
+    </row>
+    <row r="155" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C155" s="3"/>
+      <c r="D155" s="3"/>
+      <c r="E155" s="3"/>
+    </row>
+    <row r="156" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C156" s="3"/>
+      <c r="D156" s="3"/>
+      <c r="E156" s="3"/>
+    </row>
+    <row r="157" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C157" s="3"/>
+      <c r="D157" s="3"/>
+      <c r="E157" s="3"/>
+    </row>
+    <row r="158" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C158" s="3"/>
+      <c r="D158" s="3"/>
+      <c r="E158" s="3"/>
+    </row>
+    <row r="159" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C159" s="3"/>
+      <c r="D159" s="3"/>
+      <c r="E159" s="3"/>
+    </row>
+    <row r="160" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C160" s="3"/>
+      <c r="D160" s="3"/>
+      <c r="E160" s="3"/>
+    </row>
+    <row r="161" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C161" s="3"/>
+      <c r="D161" s="3"/>
+      <c r="E161" s="3"/>
+    </row>
+    <row r="162" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C162" s="3"/>
+      <c r="D162" s="3"/>
+      <c r="E162" s="3"/>
+    </row>
+    <row r="163" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C163" s="3"/>
+      <c r="D163" s="3"/>
+      <c r="E163" s="3"/>
+    </row>
+    <row r="164" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C164" s="3"/>
+      <c r="D164" s="3"/>
+      <c r="E164" s="3"/>
+    </row>
+    <row r="165" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C165" s="3"/>
+      <c r="D165" s="3"/>
+      <c r="E165" s="3"/>
+    </row>
+    <row r="166" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C166" s="3"/>
+      <c r="D166" s="3"/>
+      <c r="E166" s="3"/>
+    </row>
+    <row r="167" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C167" s="3"/>
+      <c r="D167" s="3"/>
+      <c r="E167" s="3"/>
+    </row>
+    <row r="168" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C168" s="3"/>
+      <c r="D168" s="3"/>
+      <c r="E168" s="3"/>
+    </row>
+    <row r="169" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C169" s="3"/>
+      <c r="D169" s="3"/>
+      <c r="E169" s="3"/>
+    </row>
+    <row r="170" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C170" s="3"/>
+      <c r="D170" s="3"/>
+      <c r="E170" s="3"/>
+    </row>
+    <row r="171" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C171" s="3"/>
+      <c r="D171" s="3"/>
+      <c r="E171" s="3"/>
+    </row>
+    <row r="172" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C172" s="3"/>
+      <c r="D172" s="3"/>
+      <c r="E172" s="3"/>
+    </row>
+    <row r="173" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C173" s="3"/>
+      <c r="D173" s="3"/>
+      <c r="E173" s="3"/>
+    </row>
+    <row r="174" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C174" s="3"/>
+      <c r="D174" s="3"/>
+      <c r="E174" s="3"/>
+    </row>
+    <row r="175" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C175" s="3"/>
+      <c r="D175" s="3"/>
+      <c r="E175" s="3"/>
+    </row>
+    <row r="176" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C176" s="3"/>
+      <c r="D176" s="3"/>
+      <c r="E176" s="3"/>
+    </row>
+    <row r="177" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C177" s="3"/>
+      <c r="D177" s="3"/>
+      <c r="E177" s="3"/>
+    </row>
+    <row r="178" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C178" s="3"/>
+      <c r="D178" s="3"/>
+      <c r="E178" s="3"/>
+    </row>
+    <row r="179" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C179" s="3"/>
+      <c r="D179" s="3"/>
+      <c r="E179" s="3"/>
+    </row>
+    <row r="180" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C180" s="3"/>
+      <c r="D180" s="3"/>
+      <c r="E180" s="3"/>
+    </row>
+    <row r="181" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C181" s="3"/>
+      <c r="D181" s="3"/>
+      <c r="E181" s="3"/>
+    </row>
+    <row r="182" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C182" s="3"/>
+      <c r="D182" s="3"/>
+      <c r="E182" s="3"/>
+    </row>
+    <row r="183" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C183" s="3"/>
+      <c r="D183" s="3"/>
+      <c r="E183" s="3"/>
+    </row>
+    <row r="184" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C184" s="3"/>
+      <c r="D184" s="3"/>
+      <c r="E184" s="3"/>
+    </row>
+    <row r="185" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C185" s="3"/>
+      <c r="D185" s="3"/>
+      <c r="E185" s="3"/>
+    </row>
+    <row r="186" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C186" s="3"/>
+      <c r="D186" s="3"/>
+      <c r="E186" s="3"/>
+    </row>
+    <row r="187" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C187" s="3"/>
+      <c r="D187" s="3"/>
+      <c r="E187" s="3"/>
+    </row>
+    <row r="188" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C188" s="3"/>
+      <c r="D188" s="3"/>
+      <c r="E188" s="3"/>
+    </row>
+    <row r="189" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C189" s="3"/>
+      <c r="D189" s="3"/>
+      <c r="E189" s="3"/>
+    </row>
+    <row r="190" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C190" s="3"/>
+      <c r="D190" s="3"/>
+      <c r="E190" s="3"/>
+    </row>
+    <row r="191" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C191" s="3"/>
+      <c r="D191" s="3"/>
+      <c r="E191" s="3"/>
+    </row>
+    <row r="192" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C192" s="3"/>
+      <c r="D192" s="3"/>
+      <c r="E192" s="3"/>
+    </row>
+    <row r="193" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C193" s="3"/>
+      <c r="D193" s="3"/>
+      <c r="E193" s="3"/>
+    </row>
+    <row r="194" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C194" s="3"/>
+      <c r="D194" s="3"/>
+      <c r="E194" s="3"/>
+    </row>
+    <row r="195" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C195" s="3"/>
+      <c r="D195" s="3"/>
+      <c r="E195" s="3"/>
+    </row>
+    <row r="196" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C196" s="3"/>
+      <c r="D196" s="3"/>
+      <c r="E196" s="3"/>
+    </row>
+    <row r="197" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C197" s="3"/>
+      <c r="D197" s="3"/>
+      <c r="E197" s="3"/>
+    </row>
+    <row r="198" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C198" s="3"/>
+      <c r="D198" s="3"/>
+      <c r="E198" s="3"/>
+    </row>
+    <row r="199" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C199" s="3"/>
+      <c r="D199" s="3"/>
+      <c r="E199" s="3"/>
+    </row>
+    <row r="200" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C200" s="3"/>
+      <c r="D200" s="3"/>
+      <c r="E200" s="3"/>
+    </row>
+    <row r="201" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C201" s="3"/>
+      <c r="D201" s="3"/>
+      <c r="E201" s="3"/>
+    </row>
+    <row r="202" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C202" s="3"/>
+      <c r="D202" s="3"/>
+      <c r="E202" s="3"/>
+    </row>
+    <row r="203" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C203" s="3"/>
+      <c r="D203" s="3"/>
+      <c r="E203" s="3"/>
+    </row>
+    <row r="204" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C204" s="3"/>
+      <c r="D204" s="3"/>
+      <c r="E204" s="3"/>
+    </row>
+    <row r="205" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C205" s="3"/>
+      <c r="D205" s="3"/>
+      <c r="E205" s="3"/>
+    </row>
+    <row r="206" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C206" s="3"/>
+      <c r="D206" s="3"/>
+      <c r="E206" s="3"/>
+    </row>
+    <row r="207" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C207" s="3"/>
+      <c r="D207" s="3"/>
+      <c r="E207" s="3"/>
+    </row>
+    <row r="208" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C208" s="3"/>
+      <c r="D208" s="3"/>
+      <c r="E208" s="3"/>
+    </row>
+    <row r="209" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C209" s="3"/>
+      <c r="D209" s="3"/>
+      <c r="E209" s="3"/>
+    </row>
+    <row r="210" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C210" s="3"/>
+      <c r="D210" s="3"/>
+      <c r="E210" s="3"/>
+    </row>
+    <row r="211" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C211" s="3"/>
+      <c r="D211" s="3"/>
+      <c r="E211" s="3"/>
+    </row>
+    <row r="212" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C212" s="3"/>
+      <c r="D212" s="3"/>
+      <c r="E212" s="3"/>
+    </row>
+    <row r="213" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C213" s="3"/>
+      <c r="D213" s="3"/>
+      <c r="E213" s="3"/>
+    </row>
+    <row r="214" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C214" s="3"/>
+      <c r="D214" s="3"/>
+      <c r="E214" s="3"/>
+    </row>
+    <row r="215" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C215" s="3"/>
+      <c r="D215" s="3"/>
+      <c r="E215" s="3"/>
+    </row>
+    <row r="216" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C216" s="3"/>
+      <c r="D216" s="3"/>
+      <c r="E216" s="3"/>
+    </row>
+    <row r="217" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C217" s="3"/>
+      <c r="D217" s="3"/>
+      <c r="E217" s="3"/>
+    </row>
+    <row r="218" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C218" s="3"/>
+      <c r="D218" s="3"/>
+      <c r="E218" s="3"/>
+    </row>
+    <row r="219" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C219" s="3"/>
+      <c r="D219" s="3"/>
+      <c r="E219" s="3"/>
+    </row>
+    <row r="220" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C220" s="3"/>
+      <c r="D220" s="3"/>
+      <c r="E220" s="3"/>
+    </row>
+    <row r="221" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C221" s="3"/>
+      <c r="D221" s="3"/>
+      <c r="E221" s="3"/>
+    </row>
+    <row r="222" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C222" s="3"/>
+      <c r="D222" s="3"/>
+      <c r="E222" s="3"/>
+    </row>
+    <row r="223" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C223" s="3"/>
+      <c r="E223" s="3"/>
+    </row>
+    <row r="224" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C224" s="3"/>
+      <c r="E224" s="3"/>
+    </row>
+    <row r="225" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C225" s="3"/>
+      <c r="E225" s="3"/>
+    </row>
+    <row r="226" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C226" s="3"/>
+      <c r="E226" s="3"/>
+    </row>
+    <row r="227" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C227" s="3"/>
+      <c r="E227" s="3"/>
+    </row>
+    <row r="228" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C228" s="3"/>
+      <c r="E228" s="3"/>
+    </row>
+    <row r="229" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C229" s="3"/>
+      <c r="E229" s="3"/>
+    </row>
+    <row r="230" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C230" s="3"/>
+      <c r="E230" s="3"/>
+    </row>
+    <row r="231" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C231" s="3"/>
+      <c r="E231" s="3"/>
+    </row>
+    <row r="232" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C232" s="3"/>
+      <c r="E232" s="3"/>
+    </row>
+    <row r="233" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C233" s="3"/>
+      <c r="E233" s="3"/>
+    </row>
+    <row r="234" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C234" s="3"/>
+      <c r="E234" s="3"/>
+    </row>
+    <row r="235" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C235" s="3"/>
+      <c r="E235" s="3"/>
+    </row>
+    <row r="236" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C236" s="3"/>
+      <c r="E236" s="3"/>
+    </row>
+    <row r="237" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C237" s="3"/>
+      <c r="E237" s="3"/>
+    </row>
+    <row r="238" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C238" s="3"/>
+      <c r="E238" s="3"/>
+    </row>
+    <row r="239" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C239" s="3"/>
+      <c r="E239" s="3"/>
+    </row>
+    <row r="240" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C240" s="3"/>
+      <c r="E240" s="3"/>
+    </row>
+    <row r="241" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C241" s="3"/>
+      <c r="E241" s="3"/>
+    </row>
+    <row r="242" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C242" s="3"/>
+      <c r="E242" s="3"/>
+    </row>
+    <row r="243" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C243" s="3"/>
+      <c r="E243" s="3"/>
+    </row>
+    <row r="244" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C244" s="3"/>
+      <c r="E244" s="3"/>
+    </row>
+    <row r="245" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C245" s="3"/>
+      <c r="E245" s="3"/>
+    </row>
+    <row r="246" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C246" s="3"/>
+      <c r="E246" s="3"/>
+    </row>
+    <row r="247" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C247" s="3"/>
+      <c r="E247" s="3"/>
+    </row>
+    <row r="248" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C248" s="3"/>
+      <c r="E248" s="3"/>
+    </row>
+    <row r="249" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C249" s="3"/>
+      <c r="E249" s="3"/>
+    </row>
+    <row r="250" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C250" s="3"/>
+      <c r="E250" s="3"/>
+    </row>
+    <row r="251" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C251" s="3"/>
+      <c r="E251" s="3"/>
+    </row>
+    <row r="252" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C252" s="3"/>
+      <c r="E252" s="3"/>
+    </row>
+    <row r="253" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C253" s="3"/>
+      <c r="E253" s="3"/>
+    </row>
+    <row r="254" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C254" s="3"/>
+      <c r="E254" s="3"/>
+    </row>
+    <row r="255" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C255" s="3"/>
+      <c r="E255" s="3"/>
+    </row>
+    <row r="256" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C256" s="3"/>
+      <c r="E256" s="3"/>
+    </row>
+    <row r="257" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C257" s="3"/>
+      <c r="E257" s="3"/>
+    </row>
+    <row r="258" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C258" s="3"/>
+      <c r="E258" s="3"/>
+    </row>
+    <row r="259" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C259" s="3"/>
+      <c r="E259" s="3"/>
+    </row>
+    <row r="260" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C260" s="3"/>
+      <c r="E260" s="3"/>
+    </row>
+    <row r="261" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C261" s="3"/>
+      <c r="E261" s="3"/>
+    </row>
+    <row r="262" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C262" s="3"/>
+    </row>
+    <row r="263" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C263" s="3"/>
+    </row>
+    <row r="264" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C264" s="3"/>
+    </row>
+    <row r="265" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C265" s="3"/>
+    </row>
+    <row r="266" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C266" s="3"/>
+    </row>
+    <row r="267" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C267" s="3"/>
+    </row>
+    <row r="268" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C268" s="3"/>
+    </row>
+    <row r="269" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C269" s="3"/>
+    </row>
+    <row r="270" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C270" s="3"/>
+    </row>
+    <row r="271" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C271" s="3"/>
+    </row>
+    <row r="272" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C272" s="3"/>
+    </row>
+    <row r="273" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C273" s="3"/>
+    </row>
+    <row r="274" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C274" s="3"/>
+    </row>
+    <row r="275" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C275" s="3"/>
+    </row>
+    <row r="276" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C276" s="3"/>
+    </row>
+    <row r="277" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C277" s="3"/>
+    </row>
+    <row r="278" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C278" s="3"/>
+    </row>
+    <row r="279" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C279" s="3"/>
+    </row>
+    <row r="280" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C280" s="3"/>
+    </row>
+    <row r="281" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C281" s="3"/>
+    </row>
+    <row r="282" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C282" s="3"/>
+    </row>
+    <row r="283" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C283" s="3"/>
+    </row>
+    <row r="284" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C284" s="3"/>
+    </row>
+    <row r="285" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C285" s="3"/>
+    </row>
+    <row r="286" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C286" s="3"/>
+    </row>
+    <row r="287" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C287" s="3"/>
+    </row>
+    <row r="288" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C288" s="3"/>
+    </row>
+    <row r="289" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C289" s="3"/>
+    </row>
+    <row r="290" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C290" s="3"/>
+    </row>
+    <row r="291" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C291" s="3"/>
+    </row>
+    <row r="292" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C292" s="3"/>
+    </row>
+    <row r="293" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C293" s="3"/>
+    </row>
+    <row r="294" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C294" s="3"/>
+    </row>
+    <row r="295" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C295" s="3"/>
+    </row>
+    <row r="296" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C296" s="3"/>
+    </row>
+    <row r="297" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C297" s="3"/>
+    </row>
+    <row r="298" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C298" s="3"/>
+    </row>
+    <row r="299" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C299" s="3"/>
+    </row>
+    <row r="300" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C300" s="3"/>
+    </row>
+    <row r="301" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C301" s="3"/>
+    </row>
+    <row r="302" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C302" s="3"/>
+    </row>
+    <row r="303" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C303" s="3"/>
+    </row>
+    <row r="304" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C304" s="3"/>
+    </row>
+    <row r="305" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C305" s="3"/>
+    </row>
+    <row r="306" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C306" s="3"/>
+    </row>
+    <row r="307" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C307" s="3"/>
+    </row>
+    <row r="308" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C308" s="3"/>
+    </row>
+    <row r="309" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C309" s="3"/>
+    </row>
+    <row r="310" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C310" s="3"/>
+    </row>
+    <row r="311" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C311" s="3"/>
+    </row>
+    <row r="312" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C312" s="3"/>
+    </row>
+    <row r="313" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C313" s="3"/>
+    </row>
+    <row r="314" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C314" s="3"/>
+    </row>
+    <row r="315" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C315" s="3"/>
+    </row>
+    <row r="316" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C316" s="3"/>
+    </row>
+    <row r="317" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C317" s="3"/>
+    </row>
+    <row r="318" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C318" s="3"/>
+    </row>
+    <row r="319" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C319" s="3"/>
+    </row>
+    <row r="320" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C320" s="3"/>
+    </row>
+    <row r="321" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C321" s="3"/>
+    </row>
+    <row r="322" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C322" s="3"/>
+    </row>
+    <row r="323" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C323" s="3"/>
+    </row>
+    <row r="324" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C324" s="3"/>
+    </row>
+    <row r="325" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C325" s="3"/>
+    </row>
+    <row r="326" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C326" s="3"/>
+    </row>
+    <row r="327" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C327" s="3"/>
+    </row>
+    <row r="328" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C328" s="3"/>
+    </row>
+    <row r="329" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C329" s="3"/>
+    </row>
+    <row r="330" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C330" s="3"/>
+    </row>
+    <row r="331" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C331" s="3"/>
+    </row>
+    <row r="332" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C332" s="3"/>
+    </row>
+    <row r="333" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C333" s="3"/>
+    </row>
+    <row r="334" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C334" s="3"/>
+    </row>
+    <row r="335" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C335" s="3"/>
+    </row>
+    <row r="336" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C336" s="3"/>
+    </row>
+    <row r="337" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C337" s="3"/>
+    </row>
+    <row r="338" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C338" s="3"/>
+    </row>
+    <row r="339" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C339" s="3"/>
+    </row>
+    <row r="340" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C340" s="3"/>
+    </row>
+    <row r="341" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C341" s="3"/>
+    </row>
+    <row r="342" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C342" s="3"/>
+    </row>
+    <row r="343" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C343" s="3"/>
+    </row>
+    <row r="344" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C344" s="3"/>
+    </row>
+    <row r="345" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C345" s="3"/>
+    </row>
+    <row r="346" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C346" s="3"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/2021.xlsx
+++ b/2021.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beca\OneDrive\Escritorio\modelo LOLIUM Bordenave 2017\MODELO PRED PATRON 2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beca\OneDrive\Escritorio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5079B52B-D546-4333-9B1C-D6ACDFA46F71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C397F47-35D5-4EEC-8968-07B35D611F8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>DIA JULIANO</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>prec</t>
+  </si>
+  <si>
+    <t>fecha</t>
   </si>
 </sst>
 </file>
@@ -397,7 +400,7 @@
   <dimension ref="A1:E346"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -408,6 +411,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
